--- a/测试记录.xlsx
+++ b/测试记录.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\四川大学\毕业论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sichuan-university\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3ABE68-9EE2-40D7-8937-71462142D55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBAB60B-F19B-4705-B482-5D3057C095BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="3855" windowWidth="16470" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="交并比" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,12 +39,24 @@
     <t>0类检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>benchmark bbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real bbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intersection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +71,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +117,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -363,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -390,4 +441,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AE887C-AF78-42C2-8AE8-F13F7D3A7D65}">
+  <dimension ref="C7:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="D14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/测试记录.xlsx
+++ b/测试记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sichuan-university\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBAB60B-F19B-4705-B482-5D3057C095BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CC2D9-31D9-4A5E-8DB0-4F1DB4F8E49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -130,6 +130,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,7 +451,7 @@
   <dimension ref="C7:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -460,6 +463,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
@@ -467,11 +471,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -494,11 +500,13 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
       <c r="D14" s="7" t="s">
         <v>4</v>
       </c>
@@ -506,15 +514,18 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="D14:F14"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
